--- a/orange_green_purple/condition_file_orange_green_purple.xlsx
+++ b/orange_green_purple/condition_file_orange_green_purple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/orange_green_purple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F70190-1DD1-C94A-ACA0-45BF073E314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7C2502-950D-2A42-9D5F-DF60FD012527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="740" windowWidth="29380" windowHeight="18380" xr2:uid="{DA1428FE-1F6B-D84E-A641-D81E17FE7399}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29380" windowHeight="18380" xr2:uid="{DA1428FE-1F6B-D84E-A641-D81E17FE7399}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4491,7 +4491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4503,9 +4503,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4824,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A4020E-9A69-1D46-A565-9220EE152F5E}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B296" workbookViewId="0">
-      <selection activeCell="J301" sqref="J301"/>
+    <sheetView tabSelected="1" topLeftCell="B294" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4897,7 +4894,7 @@
       <c r="D2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2">
@@ -4938,7 +4935,7 @@
       <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2">
@@ -4979,7 +4976,7 @@
       <c r="D4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2">
@@ -5007,7 +5004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -5020,7 +5017,7 @@
       <c r="D5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2">
@@ -5048,7 +5045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -5061,7 +5058,7 @@
       <c r="D6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2">
@@ -5102,7 +5099,7 @@
       <c r="D7" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2">
@@ -5130,7 +5127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
@@ -5143,7 +5140,7 @@
       <c r="D8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2">
@@ -5184,7 +5181,7 @@
       <c r="D9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="2">
@@ -5212,7 +5209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>118</v>
       </c>
@@ -5225,7 +5222,7 @@
       <c r="D10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2">
@@ -5253,7 +5250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>120</v>
       </c>
@@ -5266,7 +5263,7 @@
       <c r="D11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2">
@@ -5294,7 +5291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -5307,7 +5304,7 @@
       <c r="D12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2">
@@ -5335,7 +5332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -5348,7 +5345,7 @@
       <c r="D13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="2">
@@ -5376,7 +5373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>126</v>
       </c>
@@ -5389,7 +5386,7 @@
       <c r="D14" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="2">
@@ -5430,7 +5427,7 @@
       <c r="D15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2">
@@ -5458,7 +5455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -5471,7 +5468,7 @@
       <c r="D16" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="2">
@@ -5512,7 +5509,7 @@
       <c r="D17" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="2">
@@ -5540,7 +5537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>150</v>
       </c>
@@ -5553,7 +5550,7 @@
       <c r="D18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2">
@@ -5594,7 +5591,7 @@
       <c r="D19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="2">
@@ -5635,7 +5632,7 @@
       <c r="D20" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2">
@@ -5663,7 +5660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>156</v>
       </c>
@@ -5676,7 +5673,7 @@
       <c r="D21" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="2">
@@ -5704,7 +5701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>158</v>
       </c>
@@ -5717,7 +5714,7 @@
       <c r="D22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
       <c r="F22" s="2">
@@ -5745,7 +5742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>160</v>
       </c>
@@ -5758,7 +5755,7 @@
       <c r="D23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="2">
@@ -5786,7 +5783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -5799,7 +5796,7 @@
       <c r="D24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="2">
@@ -5827,7 +5824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>44</v>
       </c>
@@ -5840,7 +5837,7 @@
       <c r="D25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="2">
@@ -5868,7 +5865,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>164</v>
       </c>
@@ -5881,7 +5878,7 @@
       <c r="D26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2">
@@ -5922,7 +5919,7 @@
       <c r="D27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="2">
@@ -5950,7 +5947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>184</v>
       </c>
@@ -5963,7 +5960,7 @@
       <c r="D28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="2">
@@ -6004,7 +6001,7 @@
       <c r="D29" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="2">
@@ -6032,7 +6029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>49</v>
       </c>
@@ -6045,7 +6042,7 @@
       <c r="D30" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="2">
@@ -6073,7 +6070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>189</v>
       </c>
@@ -6086,7 +6083,7 @@
       <c r="D31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="2">
@@ -6114,7 +6111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>191</v>
       </c>
@@ -6127,7 +6124,7 @@
       <c r="D32" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="2">
@@ -6155,7 +6152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
@@ -6168,7 +6165,7 @@
       <c r="D33" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
         <v>25</v>
       </c>
       <c r="F33" s="2">
@@ -6196,7 +6193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>194</v>
       </c>
@@ -6209,7 +6206,7 @@
       <c r="D34" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="2">
@@ -6237,7 +6234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>196</v>
       </c>
@@ -6250,7 +6247,7 @@
       <c r="D35" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="2">
@@ -6278,7 +6275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>198</v>
       </c>
@@ -6291,7 +6288,7 @@
       <c r="D36" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="2">
@@ -6319,7 +6316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>219</v>
       </c>
@@ -6332,7 +6329,7 @@
       <c r="D37" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="2">
@@ -6360,7 +6357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>221</v>
       </c>
@@ -6373,7 +6370,7 @@
       <c r="D38" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="2">
@@ -6414,7 +6411,7 @@
       <c r="D39" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="2">
@@ -6442,7 +6439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -6455,7 +6452,7 @@
       <c r="D40" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="2">
@@ -6483,7 +6480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -6496,7 +6493,7 @@
       <c r="D41" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="2">
@@ -6524,7 +6521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>227</v>
       </c>
@@ -6537,7 +6534,7 @@
       <c r="D42" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="2">
@@ -6565,7 +6562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>229</v>
       </c>
@@ -6578,7 +6575,7 @@
       <c r="D43" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="2">
@@ -6606,7 +6603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>231</v>
       </c>
@@ -6619,7 +6616,7 @@
       <c r="D44" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="2">
@@ -6647,7 +6644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>233</v>
       </c>
@@ -6660,7 +6657,7 @@
       <c r="D45" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="2">
@@ -6688,7 +6685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>65</v>
       </c>
@@ -6701,7 +6698,7 @@
       <c r="D46" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="2">
@@ -6729,7 +6726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -6742,7 +6739,7 @@
       <c r="D47" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="2">
@@ -6770,7 +6767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>255</v>
       </c>
@@ -6783,7 +6780,7 @@
       <c r="D48" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="2">
@@ -6811,7 +6808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>257</v>
       </c>
@@ -6824,7 +6821,7 @@
       <c r="D49" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="2">
@@ -6852,7 +6849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>259</v>
       </c>
@@ -6865,7 +6862,7 @@
       <c r="D50" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="2">
@@ -6906,7 +6903,7 @@
       <c r="D51" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="2">
@@ -6947,7 +6944,7 @@
       <c r="D52" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="2">
@@ -6988,7 +6985,7 @@
       <c r="D53" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="2">
@@ -7016,7 +7013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>267</v>
       </c>
@@ -7029,7 +7026,7 @@
       <c r="D54" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" t="s">
         <v>25</v>
       </c>
       <c r="F54" s="2">
@@ -7057,7 +7054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>74</v>
       </c>
@@ -7070,7 +7067,7 @@
       <c r="D55" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" t="s">
         <v>25</v>
       </c>
       <c r="F55" s="2">
@@ -7098,7 +7095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>270</v>
       </c>
@@ -7111,7 +7108,7 @@
       <c r="D56" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
         <v>25</v>
       </c>
       <c r="F56" s="2">
@@ -7139,7 +7136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>76</v>
       </c>
@@ -7152,7 +7149,7 @@
       <c r="D57" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" t="s">
         <v>25</v>
       </c>
       <c r="F57" s="2">
@@ -7180,7 +7177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>291</v>
       </c>
@@ -7193,7 +7190,7 @@
       <c r="D58" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="2">
@@ -7221,7 +7218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>293</v>
       </c>
@@ -7234,7 +7231,7 @@
       <c r="D59" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="2">
@@ -7262,7 +7259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>295</v>
       </c>
@@ -7275,7 +7272,7 @@
       <c r="D60" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="2">
@@ -7303,7 +7300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>297</v>
       </c>
@@ -7316,7 +7313,7 @@
       <c r="D61" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="2">
@@ -7344,7 +7341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>81</v>
       </c>
@@ -7357,7 +7354,7 @@
       <c r="D62" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
         <v>25</v>
       </c>
       <c r="F62" s="2">
@@ -7385,7 +7382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>82</v>
       </c>
@@ -7398,7 +7395,7 @@
       <c r="D63" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
         <v>25</v>
       </c>
       <c r="F63" s="2">
@@ -7426,7 +7423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>301</v>
       </c>
@@ -7439,7 +7436,7 @@
       <c r="D64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
         <v>25</v>
       </c>
       <c r="F64" s="2">
@@ -7467,7 +7464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="100" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>303</v>
       </c>
@@ -7480,7 +7477,7 @@
       <c r="D65" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
         <v>25</v>
       </c>
       <c r="F65" s="2">
@@ -7508,7 +7505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="80" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="140" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>305</v>
       </c>
@@ -7521,7 +7518,7 @@
       <c r="D66" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="2">
@@ -7562,7 +7559,7 @@
       <c r="D67" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="2">
@@ -7603,7 +7600,7 @@
       <c r="D68" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="2">
@@ -7644,7 +7641,7 @@
       <c r="D69" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="2">
@@ -7685,7 +7682,7 @@
       <c r="D70" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" t="s">
         <v>25</v>
       </c>
       <c r="F70" s="2">
@@ -7726,7 +7723,7 @@
       <c r="D71" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
         <v>25</v>
       </c>
       <c r="F71" s="2">
@@ -7754,7 +7751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>91</v>
       </c>
@@ -7767,7 +7764,7 @@
       <c r="D72" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
         <v>25</v>
       </c>
       <c r="F72" s="2">
@@ -7808,8 +7805,8 @@
       <c r="D73" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>25</v>
+      <c r="E73" t="s">
+        <v>14</v>
       </c>
       <c r="F73" s="2">
         <v>0.25</v>
@@ -7849,7 +7846,7 @@
       <c r="D74" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="2">
@@ -7877,7 +7874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>347</v>
       </c>
@@ -7890,7 +7887,7 @@
       <c r="D75" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="2">
@@ -7918,7 +7915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="80" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>349</v>
       </c>
@@ -7931,7 +7928,7 @@
       <c r="D76" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="2">
@@ -7972,7 +7969,7 @@
       <c r="D77" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="2">
@@ -8013,8 +8010,8 @@
       <c r="D78" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>25</v>
+      <c r="E78" t="s">
+        <v>14</v>
       </c>
       <c r="F78" s="2">
         <v>-0.25</v>
@@ -8054,8 +8051,8 @@
       <c r="D79" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>25</v>
+      <c r="E79" t="s">
+        <v>14</v>
       </c>
       <c r="F79" s="2">
         <v>-0.25</v>
@@ -8095,8 +8092,8 @@
       <c r="D80" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>25</v>
+      <c r="E80" t="s">
+        <v>14</v>
       </c>
       <c r="F80" s="2">
         <v>-0.25</v>
@@ -8136,8 +8133,8 @@
       <c r="D81" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>25</v>
+      <c r="E81" t="s">
+        <v>14</v>
       </c>
       <c r="F81" s="2">
         <v>-0.25</v>
@@ -8177,7 +8174,7 @@
       <c r="D82" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="2">
@@ -8218,7 +8215,7 @@
       <c r="D83" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" s="2">
@@ -8259,7 +8256,7 @@
       <c r="D84" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="2">
@@ -8300,7 +8297,7 @@
       <c r="D85" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" s="2">
@@ -8341,8 +8338,8 @@
       <c r="D86" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>25</v>
+      <c r="E86" t="s">
+        <v>14</v>
       </c>
       <c r="F86" s="2">
         <v>-0.25</v>
@@ -8382,8 +8379,8 @@
       <c r="D87" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>25</v>
+      <c r="E87" t="s">
+        <v>14</v>
       </c>
       <c r="F87" s="2">
         <v>-0.25</v>
@@ -8423,8 +8420,8 @@
       <c r="D88" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>25</v>
+      <c r="E88" t="s">
+        <v>14</v>
       </c>
       <c r="F88" s="2">
         <v>-0.25</v>
@@ -8464,8 +8461,8 @@
       <c r="D89" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>25</v>
+      <c r="E89" t="s">
+        <v>14</v>
       </c>
       <c r="F89" s="2">
         <v>-0.25</v>
@@ -8505,7 +8502,7 @@
       <c r="D90" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="2">
@@ -8546,7 +8543,7 @@
       <c r="D91" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="2">
@@ -8587,7 +8584,7 @@
       <c r="D92" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="2">
@@ -8628,7 +8625,7 @@
       <c r="D93" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="2">
@@ -8669,8 +8666,8 @@
       <c r="D94" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>25</v>
+      <c r="E94" t="s">
+        <v>14</v>
       </c>
       <c r="F94" s="2">
         <v>-0.25</v>
@@ -8710,8 +8707,8 @@
       <c r="D95" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>25</v>
+      <c r="E95" t="s">
+        <v>14</v>
       </c>
       <c r="F95" s="2">
         <v>-0.25</v>
@@ -8751,8 +8748,8 @@
       <c r="D96" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>25</v>
+      <c r="E96" t="s">
+        <v>14</v>
       </c>
       <c r="F96" s="2">
         <v>-0.25</v>
@@ -8792,8 +8789,8 @@
       <c r="D97" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>25</v>
+      <c r="E97" t="s">
+        <v>14</v>
       </c>
       <c r="F97" s="2">
         <v>-0.25</v>
@@ -8833,7 +8830,7 @@
       <c r="D98" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" s="2">
@@ -8874,7 +8871,7 @@
       <c r="D99" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" s="2">
@@ -8915,7 +8912,7 @@
       <c r="D100" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" s="2">
@@ -8956,7 +8953,7 @@
       <c r="D101" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" s="2">
@@ -8997,8 +8994,8 @@
       <c r="D102" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>25</v>
+      <c r="E102" t="s">
+        <v>14</v>
       </c>
       <c r="F102" s="2">
         <v>-0.25</v>
@@ -9038,8 +9035,8 @@
       <c r="D103" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>25</v>
+      <c r="E103" t="s">
+        <v>14</v>
       </c>
       <c r="F103" s="2">
         <v>-0.25</v>
@@ -9079,8 +9076,8 @@
       <c r="D104" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>25</v>
+      <c r="E104" t="s">
+        <v>14</v>
       </c>
       <c r="F104" s="2">
         <v>-0.25</v>
@@ -9120,8 +9117,8 @@
       <c r="D105" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>25</v>
+      <c r="E105" t="s">
+        <v>14</v>
       </c>
       <c r="F105" s="2">
         <v>-0.25</v>
@@ -9161,7 +9158,7 @@
       <c r="D106" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" s="2">
@@ -9202,7 +9199,7 @@
       <c r="D107" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="2">
@@ -9243,7 +9240,7 @@
       <c r="D108" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="2">
@@ -9284,7 +9281,7 @@
       <c r="D109" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="2">
@@ -9325,8 +9322,8 @@
       <c r="D110" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>25</v>
+      <c r="E110" t="s">
+        <v>14</v>
       </c>
       <c r="F110" s="2">
         <v>-0.25</v>
@@ -9366,8 +9363,8 @@
       <c r="D111" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>25</v>
+      <c r="E111" t="s">
+        <v>14</v>
       </c>
       <c r="F111" s="2">
         <v>-0.25</v>
@@ -9407,8 +9404,8 @@
       <c r="D112" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>25</v>
+      <c r="E112" t="s">
+        <v>14</v>
       </c>
       <c r="F112" s="2">
         <v>-0.25</v>
@@ -9448,8 +9445,8 @@
       <c r="D113" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>25</v>
+      <c r="E113" t="s">
+        <v>14</v>
       </c>
       <c r="F113" s="2">
         <v>-0.25</v>
@@ -9489,7 +9486,7 @@
       <c r="D114" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" s="2">
@@ -9530,7 +9527,7 @@
       <c r="D115" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2">
@@ -9571,7 +9568,7 @@
       <c r="D116" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" s="2">
@@ -9612,7 +9609,7 @@
       <c r="D117" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" s="2">
@@ -9653,8 +9650,8 @@
       <c r="D118" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>25</v>
+      <c r="E118" t="s">
+        <v>14</v>
       </c>
       <c r="F118" s="2">
         <v>-0.25</v>
@@ -9694,8 +9691,8 @@
       <c r="D119" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>25</v>
+      <c r="E119" t="s">
+        <v>14</v>
       </c>
       <c r="F119" s="2">
         <v>-0.25</v>
@@ -9735,8 +9732,8 @@
       <c r="D120" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>25</v>
+      <c r="E120" t="s">
+        <v>14</v>
       </c>
       <c r="F120" s="2">
         <v>-0.25</v>
@@ -9776,8 +9773,8 @@
       <c r="D121" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>25</v>
+      <c r="E121" t="s">
+        <v>14</v>
       </c>
       <c r="F121" s="2">
         <v>-0.25</v>
@@ -9817,7 +9814,7 @@
       <c r="D122" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" s="2">
@@ -9858,7 +9855,7 @@
       <c r="D123" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" s="2">
@@ -9899,7 +9896,7 @@
       <c r="D124" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" s="2">
@@ -9940,7 +9937,7 @@
       <c r="D125" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" s="2">
@@ -9981,8 +9978,8 @@
       <c r="D126" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>25</v>
+      <c r="E126" t="s">
+        <v>14</v>
       </c>
       <c r="F126" s="2">
         <v>-0.25</v>
@@ -10022,8 +10019,8 @@
       <c r="D127" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>25</v>
+      <c r="E127" t="s">
+        <v>14</v>
       </c>
       <c r="F127" s="2">
         <v>-0.25</v>
@@ -10063,8 +10060,8 @@
       <c r="D128" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>25</v>
+      <c r="E128" t="s">
+        <v>14</v>
       </c>
       <c r="F128" s="2">
         <v>-0.25</v>
@@ -10104,8 +10101,8 @@
       <c r="D129" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>25</v>
+      <c r="E129" t="s">
+        <v>14</v>
       </c>
       <c r="F129" s="2">
         <v>-0.25</v>
@@ -10145,7 +10142,7 @@
       <c r="D130" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" t="s">
         <v>14</v>
       </c>
       <c r="F130" s="2">
@@ -10186,7 +10183,7 @@
       <c r="D131" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" t="s">
         <v>14</v>
       </c>
       <c r="F131" s="2">
@@ -10227,7 +10224,7 @@
       <c r="D132" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" t="s">
         <v>14</v>
       </c>
       <c r="F132" s="2">
@@ -10268,7 +10265,7 @@
       <c r="D133" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" t="s">
         <v>14</v>
       </c>
       <c r="F133" s="2">
@@ -10309,8 +10306,8 @@
       <c r="D134" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>25</v>
+      <c r="E134" t="s">
+        <v>14</v>
       </c>
       <c r="F134" s="2">
         <v>-0.25</v>
@@ -10350,8 +10347,8 @@
       <c r="D135" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>25</v>
+      <c r="E135" t="s">
+        <v>14</v>
       </c>
       <c r="F135" s="2">
         <v>-0.25</v>
@@ -10391,8 +10388,8 @@
       <c r="D136" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>25</v>
+      <c r="E136" t="s">
+        <v>14</v>
       </c>
       <c r="F136" s="2">
         <v>-0.25</v>
@@ -10432,8 +10429,8 @@
       <c r="D137" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>25</v>
+      <c r="E137" t="s">
+        <v>14</v>
       </c>
       <c r="F137" s="2">
         <v>-0.25</v>
@@ -10473,7 +10470,7 @@
       <c r="D138" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138" s="2">
@@ -10514,7 +10511,7 @@
       <c r="D139" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" t="s">
         <v>14</v>
       </c>
       <c r="F139" s="2">
@@ -10555,7 +10552,7 @@
       <c r="D140" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" t="s">
         <v>14</v>
       </c>
       <c r="F140" s="2">
@@ -10596,7 +10593,7 @@
       <c r="D141" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" t="s">
         <v>14</v>
       </c>
       <c r="F141" s="2">
@@ -10637,8 +10634,8 @@
       <c r="D142" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>25</v>
+      <c r="E142" t="s">
+        <v>14</v>
       </c>
       <c r="F142" s="2">
         <v>-0.25</v>
@@ -10678,8 +10675,8 @@
       <c r="D143" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>25</v>
+      <c r="E143" t="s">
+        <v>14</v>
       </c>
       <c r="F143" s="2">
         <v>-0.25</v>
@@ -10719,8 +10716,8 @@
       <c r="D144" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>25</v>
+      <c r="E144" t="s">
+        <v>14</v>
       </c>
       <c r="F144" s="2">
         <v>-0.25</v>
@@ -10760,8 +10757,8 @@
       <c r="D145" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>25</v>
+      <c r="E145" t="s">
+        <v>14</v>
       </c>
       <c r="F145" s="2">
         <v>-0.25</v>
@@ -10801,7 +10798,7 @@
       <c r="D146" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" s="2">
@@ -10842,7 +10839,7 @@
       <c r="D147" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" t="s">
         <v>14</v>
       </c>
       <c r="F147" s="2">
@@ -10883,7 +10880,7 @@
       <c r="D148" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" s="2">
@@ -10924,7 +10921,7 @@
       <c r="D149" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" t="s">
         <v>14</v>
       </c>
       <c r="F149" s="2">
@@ -10965,8 +10962,8 @@
       <c r="D150" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>25</v>
+      <c r="E150" t="s">
+        <v>14</v>
       </c>
       <c r="F150" s="2">
         <v>-0.25</v>
@@ -11006,8 +11003,8 @@
       <c r="D151" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>25</v>
+      <c r="E151" t="s">
+        <v>14</v>
       </c>
       <c r="F151" s="2">
         <v>-0.25</v>
@@ -11047,8 +11044,8 @@
       <c r="D152" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>25</v>
+      <c r="E152" t="s">
+        <v>14</v>
       </c>
       <c r="F152" s="2">
         <v>-0.25</v>
@@ -11088,8 +11085,8 @@
       <c r="D153" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>25</v>
+      <c r="E153" t="s">
+        <v>14</v>
       </c>
       <c r="F153" s="2">
         <v>-0.25</v>
@@ -11129,7 +11126,7 @@
       <c r="D154" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" t="s">
         <v>14</v>
       </c>
       <c r="F154" s="2">
@@ -11170,7 +11167,7 @@
       <c r="D155" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" t="s">
         <v>14</v>
       </c>
       <c r="F155" s="2">
@@ -11211,7 +11208,7 @@
       <c r="D156" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="2">
@@ -11252,7 +11249,7 @@
       <c r="D157" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="2">
@@ -11293,8 +11290,8 @@
       <c r="D158" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>25</v>
+      <c r="E158" t="s">
+        <v>14</v>
       </c>
       <c r="F158" s="2">
         <v>-0.25</v>
@@ -11334,8 +11331,8 @@
       <c r="D159" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>25</v>
+      <c r="E159" t="s">
+        <v>14</v>
       </c>
       <c r="F159" s="2">
         <v>-0.25</v>
@@ -11375,8 +11372,8 @@
       <c r="D160" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>25</v>
+      <c r="E160" t="s">
+        <v>14</v>
       </c>
       <c r="F160" s="2">
         <v>-0.25</v>
@@ -11416,8 +11413,8 @@
       <c r="D161" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>25</v>
+      <c r="E161" t="s">
+        <v>14</v>
       </c>
       <c r="F161" s="2">
         <v>-0.25</v>
@@ -11457,7 +11454,7 @@
       <c r="D162" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" s="2">
@@ -11498,7 +11495,7 @@
       <c r="D163" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" t="s">
         <v>14</v>
       </c>
       <c r="F163" s="2">
@@ -11539,7 +11536,7 @@
       <c r="D164" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" t="s">
         <v>14</v>
       </c>
       <c r="F164" s="2">
@@ -11580,7 +11577,7 @@
       <c r="D165" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" t="s">
         <v>14</v>
       </c>
       <c r="F165" s="2">
@@ -11621,8 +11618,8 @@
       <c r="D166" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>25</v>
+      <c r="E166" t="s">
+        <v>14</v>
       </c>
       <c r="F166" s="2">
         <v>-0.25</v>
@@ -11662,8 +11659,8 @@
       <c r="D167" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>25</v>
+      <c r="E167" t="s">
+        <v>14</v>
       </c>
       <c r="F167" s="2">
         <v>-0.25</v>
@@ -11703,8 +11700,8 @@
       <c r="D168" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>25</v>
+      <c r="E168" t="s">
+        <v>14</v>
       </c>
       <c r="F168" s="2">
         <v>-0.25</v>
@@ -11744,8 +11741,8 @@
       <c r="D169" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>25</v>
+      <c r="E169" t="s">
+        <v>14</v>
       </c>
       <c r="F169" s="2">
         <v>-0.25</v>
@@ -11785,7 +11782,7 @@
       <c r="D170" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" s="2">
@@ -11826,7 +11823,7 @@
       <c r="D171" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="F171" s="2">
@@ -11867,7 +11864,7 @@
       <c r="D172" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" t="s">
         <v>14</v>
       </c>
       <c r="F172" s="2">
@@ -11908,7 +11905,7 @@
       <c r="D173" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" s="2">
@@ -11949,8 +11946,8 @@
       <c r="D174" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>25</v>
+      <c r="E174" t="s">
+        <v>14</v>
       </c>
       <c r="F174" s="2">
         <v>-0.25</v>
@@ -11990,8 +11987,8 @@
       <c r="D175" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>25</v>
+      <c r="E175" t="s">
+        <v>14</v>
       </c>
       <c r="F175" s="2">
         <v>-0.25</v>
@@ -12031,8 +12028,8 @@
       <c r="D176" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>25</v>
+      <c r="E176" t="s">
+        <v>14</v>
       </c>
       <c r="F176" s="2">
         <v>-0.25</v>
@@ -12046,7 +12043,7 @@
       <c r="I176" s="2">
         <v>0</v>
       </c>
-      <c r="J176" s="5" t="s">
+      <c r="J176" s="2" t="s">
         <v>1326</v>
       </c>
       <c r="K176" s="2" t="s">
@@ -12072,8 +12069,8 @@
       <c r="D177" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>25</v>
+      <c r="E177" t="s">
+        <v>14</v>
       </c>
       <c r="F177" s="2">
         <v>-0.25</v>
@@ -12113,7 +12110,7 @@
       <c r="D178" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" s="2">
@@ -12154,7 +12151,7 @@
       <c r="D179" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" s="2">
@@ -12195,7 +12192,7 @@
       <c r="D180" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" s="2">
@@ -12236,7 +12233,7 @@
       <c r="D181" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" t="s">
         <v>14</v>
       </c>
       <c r="F181" s="2">
@@ -12277,8 +12274,8 @@
       <c r="D182" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>25</v>
+      <c r="E182" t="s">
+        <v>14</v>
       </c>
       <c r="F182" s="2">
         <v>-0.25</v>
@@ -12318,8 +12315,8 @@
       <c r="D183" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>25</v>
+      <c r="E183" t="s">
+        <v>14</v>
       </c>
       <c r="F183" s="2">
         <v>-0.25</v>
@@ -12359,8 +12356,8 @@
       <c r="D184" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>25</v>
+      <c r="E184" t="s">
+        <v>14</v>
       </c>
       <c r="F184" s="2">
         <v>-0.25</v>
@@ -12400,8 +12397,8 @@
       <c r="D185" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>25</v>
+      <c r="E185" t="s">
+        <v>14</v>
       </c>
       <c r="F185" s="2">
         <v>-0.25</v>
@@ -12441,7 +12438,7 @@
       <c r="D186" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" s="2">
@@ -12482,7 +12479,7 @@
       <c r="D187" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" s="2">
@@ -12523,7 +12520,7 @@
       <c r="D188" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" s="2">
@@ -12564,7 +12561,7 @@
       <c r="D189" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" t="s">
         <v>14</v>
       </c>
       <c r="F189" s="2">
@@ -12605,7 +12602,7 @@
       <c r="D190" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" t="s">
         <v>25</v>
       </c>
       <c r="F190" s="2">
@@ -12646,7 +12643,7 @@
       <c r="D191" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" t="s">
         <v>25</v>
       </c>
       <c r="F191" s="2">
@@ -12687,7 +12684,7 @@
       <c r="D192" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" t="s">
         <v>25</v>
       </c>
       <c r="F192" s="2">
@@ -12728,7 +12725,7 @@
       <c r="D193" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E193" t="s">
         <v>25</v>
       </c>
       <c r="F193" s="2">
@@ -12769,8 +12766,8 @@
       <c r="D194" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>14</v>
+      <c r="E194" t="s">
+        <v>25</v>
       </c>
       <c r="F194" s="2">
         <v>0.25</v>
@@ -12810,8 +12807,8 @@
       <c r="D195" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>14</v>
+      <c r="E195" t="s">
+        <v>25</v>
       </c>
       <c r="F195" s="2">
         <v>0.25</v>
@@ -12851,8 +12848,8 @@
       <c r="D196" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>14</v>
+      <c r="E196" t="s">
+        <v>25</v>
       </c>
       <c r="F196" s="2">
         <v>0.25</v>
@@ -12892,8 +12889,8 @@
       <c r="D197" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>14</v>
+      <c r="E197" t="s">
+        <v>25</v>
       </c>
       <c r="F197" s="2">
         <v>0.25</v>
@@ -12933,7 +12930,7 @@
       <c r="D198" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" t="s">
         <v>25</v>
       </c>
       <c r="F198" s="2">
@@ -12974,7 +12971,7 @@
       <c r="D199" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" t="s">
         <v>25</v>
       </c>
       <c r="F199" s="2">
@@ -13015,7 +13012,7 @@
       <c r="D200" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="E200" t="s">
         <v>25</v>
       </c>
       <c r="F200" s="2">
@@ -13056,7 +13053,7 @@
       <c r="D201" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" t="s">
         <v>25</v>
       </c>
       <c r="F201" s="2">
@@ -13097,8 +13094,8 @@
       <c r="D202" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>14</v>
+      <c r="E202" t="s">
+        <v>25</v>
       </c>
       <c r="F202" s="2">
         <v>0.25</v>
@@ -13138,8 +13135,8 @@
       <c r="D203" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>14</v>
+      <c r="E203" t="s">
+        <v>25</v>
       </c>
       <c r="F203" s="2">
         <v>0.25</v>
@@ -13179,8 +13176,8 @@
       <c r="D204" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>14</v>
+      <c r="E204" t="s">
+        <v>25</v>
       </c>
       <c r="F204" s="2">
         <v>0.25</v>
@@ -13220,8 +13217,8 @@
       <c r="D205" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>14</v>
+      <c r="E205" t="s">
+        <v>25</v>
       </c>
       <c r="F205" s="2">
         <v>0.25</v>
@@ -13261,7 +13258,7 @@
       <c r="D206" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" t="s">
         <v>25</v>
       </c>
       <c r="F206" s="2">
@@ -13302,7 +13299,7 @@
       <c r="D207" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" t="s">
         <v>25</v>
       </c>
       <c r="F207" s="2">
@@ -13343,7 +13340,7 @@
       <c r="D208" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" t="s">
         <v>25</v>
       </c>
       <c r="F208" s="2">
@@ -13384,7 +13381,7 @@
       <c r="D209" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="E209" t="s">
         <v>25</v>
       </c>
       <c r="F209" s="2">
@@ -13425,8 +13422,8 @@
       <c r="D210" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>14</v>
+      <c r="E210" t="s">
+        <v>25</v>
       </c>
       <c r="F210" s="2">
         <v>0.25</v>
@@ -13466,8 +13463,8 @@
       <c r="D211" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>14</v>
+      <c r="E211" t="s">
+        <v>25</v>
       </c>
       <c r="F211" s="2">
         <v>0.25</v>
@@ -13507,8 +13504,8 @@
       <c r="D212" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>14</v>
+      <c r="E212" t="s">
+        <v>25</v>
       </c>
       <c r="F212" s="2">
         <v>0.25</v>
@@ -13548,8 +13545,8 @@
       <c r="D213" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>14</v>
+      <c r="E213" t="s">
+        <v>25</v>
       </c>
       <c r="F213" s="2">
         <v>0.25</v>
@@ -13589,7 +13586,7 @@
       <c r="D214" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" t="s">
         <v>25</v>
       </c>
       <c r="F214" s="2">
@@ -13630,7 +13627,7 @@
       <c r="D215" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" t="s">
         <v>25</v>
       </c>
       <c r="F215" s="2">
@@ -13671,7 +13668,7 @@
       <c r="D216" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" t="s">
         <v>25</v>
       </c>
       <c r="F216" s="2">
@@ -13712,7 +13709,7 @@
       <c r="D217" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="E217" t="s">
         <v>25</v>
       </c>
       <c r="F217" s="2">
@@ -13753,8 +13750,8 @@
       <c r="D218" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>14</v>
+      <c r="E218" t="s">
+        <v>25</v>
       </c>
       <c r="F218" s="2">
         <v>0.25</v>
@@ -13794,8 +13791,8 @@
       <c r="D219" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>14</v>
+      <c r="E219" t="s">
+        <v>25</v>
       </c>
       <c r="F219" s="2">
         <v>0.25</v>
@@ -13835,8 +13832,8 @@
       <c r="D220" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>14</v>
+      <c r="E220" t="s">
+        <v>25</v>
       </c>
       <c r="F220" s="2">
         <v>0.25</v>
@@ -13876,8 +13873,8 @@
       <c r="D221" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>14</v>
+      <c r="E221" t="s">
+        <v>25</v>
       </c>
       <c r="F221" s="2">
         <v>0.25</v>
@@ -13917,7 +13914,7 @@
       <c r="D222" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" t="s">
         <v>25</v>
       </c>
       <c r="F222" s="2">
@@ -13958,7 +13955,7 @@
       <c r="D223" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" t="s">
         <v>25</v>
       </c>
       <c r="F223" s="2">
@@ -13999,7 +13996,7 @@
       <c r="D224" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" t="s">
         <v>25</v>
       </c>
       <c r="F224" s="2">
@@ -14040,7 +14037,7 @@
       <c r="D225" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" t="s">
         <v>25</v>
       </c>
       <c r="F225" s="2">
@@ -14081,8 +14078,8 @@
       <c r="D226" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>14</v>
+      <c r="E226" t="s">
+        <v>25</v>
       </c>
       <c r="F226" s="2">
         <v>0.25</v>
@@ -14122,8 +14119,8 @@
       <c r="D227" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>14</v>
+      <c r="E227" t="s">
+        <v>25</v>
       </c>
       <c r="F227" s="2">
         <v>0.25</v>
@@ -14163,8 +14160,8 @@
       <c r="D228" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>14</v>
+      <c r="E228" t="s">
+        <v>25</v>
       </c>
       <c r="F228" s="2">
         <v>0.25</v>
@@ -14204,8 +14201,8 @@
       <c r="D229" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>14</v>
+      <c r="E229" t="s">
+        <v>25</v>
       </c>
       <c r="F229" s="2">
         <v>0.25</v>
@@ -14245,7 +14242,7 @@
       <c r="D230" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" t="s">
         <v>25</v>
       </c>
       <c r="F230" s="2">
@@ -14286,7 +14283,7 @@
       <c r="D231" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" t="s">
         <v>25</v>
       </c>
       <c r="F231" s="2">
@@ -14327,7 +14324,7 @@
       <c r="D232" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" t="s">
         <v>25</v>
       </c>
       <c r="F232" s="2">
@@ -14368,7 +14365,7 @@
       <c r="D233" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" t="s">
         <v>25</v>
       </c>
       <c r="F233" s="2">
@@ -14409,8 +14406,8 @@
       <c r="D234" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>14</v>
+      <c r="E234" t="s">
+        <v>25</v>
       </c>
       <c r="F234" s="2">
         <v>0.25</v>
@@ -14450,8 +14447,8 @@
       <c r="D235" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>14</v>
+      <c r="E235" t="s">
+        <v>25</v>
       </c>
       <c r="F235" s="2">
         <v>0.25</v>
@@ -14491,8 +14488,8 @@
       <c r="D236" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>14</v>
+      <c r="E236" t="s">
+        <v>25</v>
       </c>
       <c r="F236" s="2">
         <v>0.25</v>
@@ -14532,8 +14529,8 @@
       <c r="D237" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>14</v>
+      <c r="E237" t="s">
+        <v>25</v>
       </c>
       <c r="F237" s="2">
         <v>0.25</v>
@@ -14573,7 +14570,7 @@
       <c r="D238" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" t="s">
         <v>25</v>
       </c>
       <c r="F238" s="2">
@@ -14614,7 +14611,7 @@
       <c r="D239" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="E239" s="2" t="s">
+      <c r="E239" t="s">
         <v>25</v>
       </c>
       <c r="F239" s="2">
@@ -14655,7 +14652,7 @@
       <c r="D240" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="E240" s="2" t="s">
+      <c r="E240" t="s">
         <v>25</v>
       </c>
       <c r="F240" s="2">
@@ -14696,7 +14693,7 @@
       <c r="D241" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="E241" t="s">
         <v>25</v>
       </c>
       <c r="F241" s="2">
@@ -14737,8 +14734,8 @@
       <c r="D242" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>14</v>
+      <c r="E242" t="s">
+        <v>25</v>
       </c>
       <c r="F242" s="2">
         <v>0.25</v>
@@ -14778,8 +14775,8 @@
       <c r="D243" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>14</v>
+      <c r="E243" t="s">
+        <v>25</v>
       </c>
       <c r="F243" s="2">
         <v>0.25</v>
@@ -14819,8 +14816,8 @@
       <c r="D244" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="E244" s="2" t="s">
-        <v>14</v>
+      <c r="E244" t="s">
+        <v>25</v>
       </c>
       <c r="F244" s="2">
         <v>0.25</v>
@@ -14860,8 +14857,8 @@
       <c r="D245" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>14</v>
+      <c r="E245" t="s">
+        <v>25</v>
       </c>
       <c r="F245" s="2">
         <v>0.25</v>
@@ -14901,7 +14898,7 @@
       <c r="D246" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="E246" s="2" t="s">
+      <c r="E246" t="s">
         <v>25</v>
       </c>
       <c r="F246" s="2">
@@ -14942,7 +14939,7 @@
       <c r="D247" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="E247" s="2" t="s">
+      <c r="E247" t="s">
         <v>25</v>
       </c>
       <c r="F247" s="2">
@@ -14983,7 +14980,7 @@
       <c r="D248" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="E248" s="2" t="s">
+      <c r="E248" t="s">
         <v>25</v>
       </c>
       <c r="F248" s="2">
@@ -15024,7 +15021,7 @@
       <c r="D249" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="E249" s="2" t="s">
+      <c r="E249" t="s">
         <v>25</v>
       </c>
       <c r="F249" s="2">
@@ -15065,8 +15062,8 @@
       <c r="D250" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>14</v>
+      <c r="E250" t="s">
+        <v>25</v>
       </c>
       <c r="F250" s="2">
         <v>0.25</v>
@@ -15106,8 +15103,8 @@
       <c r="D251" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>14</v>
+      <c r="E251" t="s">
+        <v>25</v>
       </c>
       <c r="F251" s="2">
         <v>0.25</v>
@@ -15147,8 +15144,8 @@
       <c r="D252" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>14</v>
+      <c r="E252" t="s">
+        <v>25</v>
       </c>
       <c r="F252" s="2">
         <v>0.25</v>
@@ -15188,8 +15185,8 @@
       <c r="D253" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>14</v>
+      <c r="E253" t="s">
+        <v>25</v>
       </c>
       <c r="F253" s="2">
         <v>0.25</v>
@@ -15229,7 +15226,7 @@
       <c r="D254" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="E254" s="2" t="s">
+      <c r="E254" t="s">
         <v>25</v>
       </c>
       <c r="F254" s="2">
@@ -15270,7 +15267,7 @@
       <c r="D255" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="E255" s="2" t="s">
+      <c r="E255" t="s">
         <v>25</v>
       </c>
       <c r="F255" s="2">
@@ -15311,7 +15308,7 @@
       <c r="D256" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="E256" s="2" t="s">
+      <c r="E256" t="s">
         <v>25</v>
       </c>
       <c r="F256" s="2">
@@ -15352,7 +15349,7 @@
       <c r="D257" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="E257" s="2" t="s">
+      <c r="E257" t="s">
         <v>25</v>
       </c>
       <c r="F257" s="2">
@@ -15393,8 +15390,8 @@
       <c r="D258" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>14</v>
+      <c r="E258" t="s">
+        <v>25</v>
       </c>
       <c r="F258" s="2">
         <v>0.25</v>
@@ -15434,8 +15431,8 @@
       <c r="D259" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>14</v>
+      <c r="E259" t="s">
+        <v>25</v>
       </c>
       <c r="F259" s="2">
         <v>0.25</v>
@@ -15475,8 +15472,8 @@
       <c r="D260" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>14</v>
+      <c r="E260" t="s">
+        <v>25</v>
       </c>
       <c r="F260" s="2">
         <v>0.25</v>
@@ -15516,8 +15513,8 @@
       <c r="D261" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>14</v>
+      <c r="E261" t="s">
+        <v>25</v>
       </c>
       <c r="F261" s="2">
         <v>0.25</v>
@@ -15557,7 +15554,7 @@
       <c r="D262" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" t="s">
         <v>25</v>
       </c>
       <c r="F262" s="2">
@@ -15598,7 +15595,7 @@
       <c r="D263" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="E263" s="2" t="s">
+      <c r="E263" t="s">
         <v>25</v>
       </c>
       <c r="F263" s="2">
@@ -15639,7 +15636,7 @@
       <c r="D264" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" t="s">
         <v>25</v>
       </c>
       <c r="F264" s="2">
@@ -15680,7 +15677,7 @@
       <c r="D265" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" t="s">
         <v>25</v>
       </c>
       <c r="F265" s="2">
@@ -15721,8 +15718,8 @@
       <c r="D266" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="E266" s="2" t="s">
-        <v>14</v>
+      <c r="E266" t="s">
+        <v>25</v>
       </c>
       <c r="F266" s="2">
         <v>0.25</v>
@@ -15762,8 +15759,8 @@
       <c r="D267" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>14</v>
+      <c r="E267" t="s">
+        <v>25</v>
       </c>
       <c r="F267" s="2">
         <v>0.25</v>
@@ -15803,8 +15800,8 @@
       <c r="D268" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>14</v>
+      <c r="E268" t="s">
+        <v>25</v>
       </c>
       <c r="F268" s="2">
         <v>0.25</v>
@@ -15844,8 +15841,8 @@
       <c r="D269" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>14</v>
+      <c r="E269" t="s">
+        <v>25</v>
       </c>
       <c r="F269" s="2">
         <v>0.25</v>
@@ -15885,7 +15882,7 @@
       <c r="D270" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="E270" s="2" t="s">
+      <c r="E270" t="s">
         <v>25</v>
       </c>
       <c r="F270" s="2">
@@ -15926,7 +15923,7 @@
       <c r="D271" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="E271" s="2" t="s">
+      <c r="E271" t="s">
         <v>25</v>
       </c>
       <c r="F271" s="2">
@@ -15967,7 +15964,7 @@
       <c r="D272" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="E272" t="s">
         <v>25</v>
       </c>
       <c r="F272" s="2">
@@ -16008,7 +16005,7 @@
       <c r="D273" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="E273" s="2" t="s">
+      <c r="E273" t="s">
         <v>25</v>
       </c>
       <c r="F273" s="2">
@@ -16049,8 +16046,8 @@
       <c r="D274" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="E274" s="2" t="s">
-        <v>14</v>
+      <c r="E274" t="s">
+        <v>25</v>
       </c>
       <c r="F274" s="2">
         <v>0.25</v>
@@ -16090,8 +16087,8 @@
       <c r="D275" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>14</v>
+      <c r="E275" t="s">
+        <v>25</v>
       </c>
       <c r="F275" s="2">
         <v>0.25</v>
@@ -16131,8 +16128,8 @@
       <c r="D276" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>14</v>
+      <c r="E276" t="s">
+        <v>25</v>
       </c>
       <c r="F276" s="2">
         <v>0.25</v>
@@ -16172,8 +16169,8 @@
       <c r="D277" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>14</v>
+      <c r="E277" t="s">
+        <v>25</v>
       </c>
       <c r="F277" s="2">
         <v>0.25</v>
@@ -16213,7 +16210,7 @@
       <c r="D278" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="E278" s="2" t="s">
+      <c r="E278" t="s">
         <v>25</v>
       </c>
       <c r="F278" s="2">
@@ -16254,7 +16251,7 @@
       <c r="D279" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="E279" s="2" t="s">
+      <c r="E279" t="s">
         <v>25</v>
       </c>
       <c r="F279" s="2">
@@ -16295,7 +16292,7 @@
       <c r="D280" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="E280" s="2" t="s">
+      <c r="E280" t="s">
         <v>25</v>
       </c>
       <c r="F280" s="2">
@@ -16336,7 +16333,7 @@
       <c r="D281" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="E281" s="2" t="s">
+      <c r="E281" t="s">
         <v>25</v>
       </c>
       <c r="F281" s="2">
@@ -16377,8 +16374,8 @@
       <c r="D282" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>14</v>
+      <c r="E282" t="s">
+        <v>25</v>
       </c>
       <c r="F282" s="2">
         <v>0.25</v>
@@ -16418,8 +16415,8 @@
       <c r="D283" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>14</v>
+      <c r="E283" t="s">
+        <v>25</v>
       </c>
       <c r="F283" s="2">
         <v>0.25</v>
@@ -16459,8 +16456,8 @@
       <c r="D284" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>14</v>
+      <c r="E284" t="s">
+        <v>25</v>
       </c>
       <c r="F284" s="2">
         <v>0.25</v>
@@ -16500,8 +16497,8 @@
       <c r="D285" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>14</v>
+      <c r="E285" t="s">
+        <v>25</v>
       </c>
       <c r="F285" s="2">
         <v>0.25</v>
@@ -16541,7 +16538,7 @@
       <c r="D286" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="E286" s="2" t="s">
+      <c r="E286" t="s">
         <v>25</v>
       </c>
       <c r="F286" s="2">
@@ -16582,7 +16579,7 @@
       <c r="D287" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="E287" t="s">
         <v>25</v>
       </c>
       <c r="F287" s="2">
@@ -16623,7 +16620,7 @@
       <c r="D288" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="E288" s="2" t="s">
+      <c r="E288" t="s">
         <v>25</v>
       </c>
       <c r="F288" s="2">
@@ -16664,7 +16661,7 @@
       <c r="D289" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="E289" s="2" t="s">
+      <c r="E289" t="s">
         <v>25</v>
       </c>
       <c r="F289" s="2">
@@ -16705,8 +16702,8 @@
       <c r="D290" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="E290" s="2" t="s">
-        <v>14</v>
+      <c r="E290" t="s">
+        <v>25</v>
       </c>
       <c r="F290" s="2">
         <v>0.25</v>
@@ -16746,8 +16743,8 @@
       <c r="D291" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="E291" s="2" t="s">
-        <v>14</v>
+      <c r="E291" t="s">
+        <v>25</v>
       </c>
       <c r="F291" s="2">
         <v>0.25</v>
@@ -16787,8 +16784,8 @@
       <c r="D292" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>14</v>
+      <c r="E292" t="s">
+        <v>25</v>
       </c>
       <c r="F292" s="2">
         <v>0.25</v>
@@ -16828,8 +16825,8 @@
       <c r="D293" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>14</v>
+      <c r="E293" t="s">
+        <v>25</v>
       </c>
       <c r="F293" s="2">
         <v>0.25</v>
@@ -16869,7 +16866,7 @@
       <c r="D294" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="E294" t="s">
         <v>25</v>
       </c>
       <c r="F294" s="2">
@@ -16910,7 +16907,7 @@
       <c r="D295" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="E295" t="s">
         <v>25</v>
       </c>
       <c r="F295" s="2">
@@ -16951,7 +16948,7 @@
       <c r="D296" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="E296" s="2" t="s">
+      <c r="E296" t="s">
         <v>25</v>
       </c>
       <c r="F296" s="2">
@@ -16992,7 +16989,7 @@
       <c r="D297" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="E297" t="s">
         <v>25</v>
       </c>
       <c r="F297" s="2">
@@ -17033,8 +17030,8 @@
       <c r="D298" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="E298" s="2" t="s">
-        <v>14</v>
+      <c r="E298" t="s">
+        <v>25</v>
       </c>
       <c r="F298" s="2">
         <v>0.25</v>
@@ -17074,8 +17071,8 @@
       <c r="D299" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="E299" s="2" t="s">
-        <v>14</v>
+      <c r="E299" t="s">
+        <v>25</v>
       </c>
       <c r="F299" s="2">
         <v>0.25</v>
@@ -17115,8 +17112,8 @@
       <c r="D300" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="E300" s="2" t="s">
-        <v>14</v>
+      <c r="E300" t="s">
+        <v>25</v>
       </c>
       <c r="F300" s="2">
         <v>0.25</v>
@@ -17156,8 +17153,8 @@
       <c r="D301" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="E301" s="2" t="s">
-        <v>14</v>
+      <c r="E301" t="s">
+        <v>25</v>
       </c>
       <c r="F301" s="2">
         <v>0.25</v>

--- a/orange_green_purple/condition_file_orange_green_purple.xlsx
+++ b/orange_green_purple/condition_file_orange_green_purple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/orange_green_purple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7C2502-950D-2A42-9D5F-DF60FD012527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEDF191-6EFA-ED46-A3FE-AE22FEE08CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29380" windowHeight="18380" xr2:uid="{DA1428FE-1F6B-D84E-A641-D81E17FE7399}"/>
   </bookViews>
@@ -4821,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A4020E-9A69-1D46-A565-9220EE152F5E}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B294" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E301"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4977,7 +4977,7 @@
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>-0.25</v>
@@ -5018,7 +5018,7 @@
         <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2">
         <v>-0.25</v>
@@ -5264,7 +5264,7 @@
         <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2">
         <v>-0.25</v>
@@ -5279,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
